--- a/Team-Data/2014-15/1-31-2014-15.xlsx
+++ b/Team-Data/2014-15/1-31-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,64 +733,64 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F2" t="n">
         <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>0.833</v>
+        <v>0.83</v>
       </c>
       <c r="H2" t="n">
         <v>48.2</v>
       </c>
       <c r="I2" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.472</v>
+        <v>0.473</v>
       </c>
       <c r="L2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="M2" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="N2" t="n">
-        <v>0.388</v>
+        <v>0.389</v>
       </c>
       <c r="O2" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P2" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="R2" t="n">
         <v>8.5</v>
       </c>
       <c r="S2" t="n">
-        <v>32.6</v>
+        <v>32.5</v>
       </c>
       <c r="T2" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U2" t="n">
-        <v>26.1</v>
+        <v>26.2</v>
       </c>
       <c r="V2" t="n">
         <v>14.3</v>
       </c>
       <c r="W2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -735,16 +802,16 @@
         <v>18.1</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.4</v>
+        <v>103.7</v>
       </c>
       <c r="AC2" t="n">
         <v>7.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -756,7 +823,7 @@
         <v>1</v>
       </c>
       <c r="AH2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
         <v>11</v>
@@ -798,22 +865,22 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW2" t="n">
         <v>5</v>
       </c>
       <c r="AX2" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AY2" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA2" t="n">
         <v>12</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>10</v>
       </c>
       <c r="BB2" t="n">
         <v>6</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -926,19 +993,19 @@
         <v>-2</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI3" t="n">
         <v>4</v>
@@ -962,10 +1029,10 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR3" t="n">
         <v>17</v>
@@ -977,7 +1044,7 @@
         <v>14</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>17</v>
@@ -986,19 +1053,19 @@
         <v>10</v>
       </c>
       <c r="AX3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA3" t="n">
         <v>30</v>
       </c>
       <c r="BB3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC3" t="n">
         <v>18</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-3.9</v>
       </c>
       <c r="AD4" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
         <v>20</v>
@@ -1120,52 +1187,52 @@
         <v>20</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>24</v>
       </c>
-      <c r="AJ4" t="n">
-        <v>23</v>
-      </c>
       <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM4" t="n">
         <v>18</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>19</v>
       </c>
       <c r="AN4" t="n">
         <v>28</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
       </c>
       <c r="AS4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AT4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AV4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX4" t="n">
         <v>23</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" t="n">
         <v>27</v>
       </c>
       <c r="G5" t="n">
-        <v>0.426</v>
+        <v>0.413</v>
       </c>
       <c r="H5" t="n">
-        <v>48.7</v>
+        <v>48.8</v>
       </c>
       <c r="I5" t="n">
-        <v>36</v>
+        <v>35.8</v>
       </c>
       <c r="J5" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.422</v>
       </c>
       <c r="L5" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>18.3</v>
+        <v>18.5</v>
       </c>
       <c r="N5" t="n">
-        <v>0.306</v>
+        <v>0.31</v>
       </c>
       <c r="O5" t="n">
         <v>17.3</v>
@@ -1251,49 +1318,49 @@
         <v>23.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.73</v>
+        <v>0.732</v>
       </c>
       <c r="R5" t="n">
         <v>10.4</v>
       </c>
       <c r="S5" t="n">
-        <v>33.7</v>
+        <v>33.4</v>
       </c>
       <c r="T5" t="n">
-        <v>44.1</v>
+        <v>43.8</v>
       </c>
       <c r="U5" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="V5" t="n">
         <v>11.7</v>
       </c>
       <c r="W5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z5" t="n">
         <v>18.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.3</v>
+        <v>-2.8</v>
       </c>
       <c r="AD5" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AF5" t="n">
         <v>18</v>
@@ -1305,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="AI5" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1326,22 +1393,22 @@
         <v>14</v>
       </c>
       <c r="AP5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AQ5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS5" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AU5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AV5" t="n">
         <v>1</v>
@@ -1353,7 +1420,7 @@
         <v>8</v>
       </c>
       <c r="AY5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AZ5" t="n">
         <v>4</v>
@@ -1365,7 +1432,7 @@
         <v>27</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1487,7 +1554,7 @@
         <v>4</v>
       </c>
       <c r="AI6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AJ6" t="n">
         <v>17</v>
@@ -1502,7 +1569,7 @@
         <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO6" t="n">
         <v>2</v>
@@ -1517,16 +1584,16 @@
         <v>3</v>
       </c>
       <c r="AS6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AT6" t="n">
         <v>2</v>
       </c>
       <c r="AU6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AV6" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
         <v>28</v>
@@ -1535,7 +1602,7 @@
         <v>1</v>
       </c>
       <c r="AY6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>3</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1576,25 +1643,25 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7" t="n">
         <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>0.592</v>
+        <v>0.583</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J7" t="n">
-        <v>82.3</v>
+        <v>82.2</v>
       </c>
       <c r="K7" t="n">
         <v>0.453</v>
@@ -1603,31 +1670,31 @@
         <v>8.800000000000001</v>
       </c>
       <c r="M7" t="n">
-        <v>25</v>
+        <v>24.9</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.351</v>
       </c>
       <c r="O7" t="n">
-        <v>18.4</v>
+        <v>18.6</v>
       </c>
       <c r="P7" t="n">
-        <v>24.4</v>
+        <v>24.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.756</v>
+        <v>0.758</v>
       </c>
       <c r="R7" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S7" t="n">
         <v>31</v>
       </c>
       <c r="T7" t="n">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="U7" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="V7" t="n">
         <v>13.6</v>
@@ -1636,28 +1703,28 @@
         <v>7.2</v>
       </c>
       <c r="X7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="AA7" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.8</v>
+        <v>101.7</v>
       </c>
       <c r="AC7" t="n">
-        <v>2.4</v>
+        <v>2.1</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF7" t="n">
         <v>12</v>
@@ -1669,10 +1736,10 @@
         <v>27</v>
       </c>
       <c r="AI7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AJ7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
         <v>15</v>
@@ -1690,13 +1757,13 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AS7" t="n">
         <v>24</v>
@@ -1705,31 +1772,31 @@
         <v>19</v>
       </c>
       <c r="AU7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AV7" t="n">
         <v>8</v>
       </c>
       <c r="AW7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AY7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB7" t="n">
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1761,25 +1828,25 @@
         <v>48</v>
       </c>
       <c r="E8" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" t="n">
-        <v>0.667</v>
+        <v>0.646</v>
       </c>
       <c r="H8" t="n">
         <v>48.5</v>
       </c>
       <c r="I8" t="n">
-        <v>40.3</v>
+        <v>40.2</v>
       </c>
       <c r="J8" t="n">
-        <v>85.59999999999999</v>
+        <v>85.7</v>
       </c>
       <c r="K8" t="n">
-        <v>0.471</v>
+        <v>0.469</v>
       </c>
       <c r="L8" t="n">
         <v>9.5</v>
@@ -1788,28 +1855,28 @@
         <v>26.5</v>
       </c>
       <c r="N8" t="n">
-        <v>0.36</v>
+        <v>0.357</v>
       </c>
       <c r="O8" t="n">
         <v>16.9</v>
       </c>
       <c r="P8" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.758</v>
+        <v>0.763</v>
       </c>
       <c r="R8" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.6</v>
+        <v>31.4</v>
       </c>
       <c r="T8" t="n">
         <v>42.1</v>
       </c>
       <c r="U8" t="n">
-        <v>23.3</v>
+        <v>23.1</v>
       </c>
       <c r="V8" t="n">
         <v>12.4</v>
@@ -1827,34 +1894,34 @@
         <v>19.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>5</v>
@@ -1866,7 +1933,7 @@
         <v>5</v>
       </c>
       <c r="AN8" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
         <v>19</v>
@@ -1875,13 +1942,13 @@
         <v>20</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AS8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AT8" t="n">
         <v>20</v>
@@ -1899,7 +1966,7 @@
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ8" t="n">
         <v>14</v>
@@ -1908,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="BB8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC8" t="n">
         <v>4</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" t="n">
         <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" t="n">
-        <v>0.396</v>
+        <v>0.404</v>
       </c>
       <c r="H9" t="n">
         <v>48.4</v>
       </c>
       <c r="I9" t="n">
-        <v>37.5</v>
+        <v>37.6</v>
       </c>
       <c r="J9" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="L9" t="n">
         <v>7.5</v>
@@ -1970,13 +2037,13 @@
         <v>23.3</v>
       </c>
       <c r="N9" t="n">
-        <v>0.32</v>
+        <v>0.322</v>
       </c>
       <c r="O9" t="n">
         <v>18.2</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.736</v>
@@ -1985,10 +2052,10 @@
         <v>12.3</v>
       </c>
       <c r="S9" t="n">
-        <v>33.2</v>
+        <v>33.1</v>
       </c>
       <c r="T9" t="n">
-        <v>45.4</v>
+        <v>45.5</v>
       </c>
       <c r="U9" t="n">
         <v>21.6</v>
@@ -1997,46 +2064,46 @@
         <v>14.3</v>
       </c>
       <c r="W9" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X9" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="AB9" t="n">
-        <v>100.6</v>
+        <v>100.9</v>
       </c>
       <c r="AC9" t="n">
-        <v>-3.3</v>
+        <v>-3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF9" t="n">
         <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>20</v>
       </c>
       <c r="AG9" t="n">
         <v>19</v>
       </c>
       <c r="AH9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AI9" t="n">
         <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK9" t="n">
         <v>26</v>
@@ -2051,7 +2118,7 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>6</v>
@@ -2069,31 +2136,31 @@
         <v>5</v>
       </c>
       <c r="AU9" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW9" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AX9" t="n">
         <v>15</v>
       </c>
       <c r="AY9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AZ9" t="n">
         <v>30</v>
       </c>
       <c r="BA9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
         <v>15</v>
       </c>
       <c r="BC9" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -2122,28 +2189,28 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="n">
         <v>30</v>
       </c>
       <c r="G10" t="n">
-        <v>0.375</v>
+        <v>0.362</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
       </c>
       <c r="I10" t="n">
-        <v>36.4</v>
+        <v>36.3</v>
       </c>
       <c r="J10" t="n">
-        <v>85.7</v>
+        <v>85.8</v>
       </c>
       <c r="K10" t="n">
-        <v>0.425</v>
+        <v>0.423</v>
       </c>
       <c r="L10" t="n">
         <v>8.699999999999999</v>
@@ -2152,16 +2219,16 @@
         <v>25.4</v>
       </c>
       <c r="N10" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O10" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.702</v>
+        <v>0.705</v>
       </c>
       <c r="R10" t="n">
         <v>13</v>
@@ -2173,37 +2240,37 @@
         <v>45.7</v>
       </c>
       <c r="U10" t="n">
-        <v>21.3</v>
+        <v>21.1</v>
       </c>
       <c r="V10" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W10" t="n">
         <v>7.9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.9</v>
+        <v>19.1</v>
       </c>
       <c r="AA10" t="n">
-        <v>19.9</v>
+        <v>19.7</v>
       </c>
       <c r="AB10" t="n">
-        <v>97.90000000000001</v>
+        <v>97.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>-2.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2212,13 +2279,13 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK10" t="n">
         <v>28</v>
@@ -2245,13 +2312,13 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT10" t="n">
         <v>3</v>
       </c>
       <c r="AU10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV10" t="n">
         <v>10</v>
@@ -2260,16 +2327,16 @@
         <v>12</v>
       </c>
       <c r="AX10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB10" t="n">
         <v>21</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -2304,22 +2371,22 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
         <v>8</v>
       </c>
       <c r="G11" t="n">
-        <v>0.822</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>41.8</v>
+        <v>41.9</v>
       </c>
       <c r="J11" t="n">
         <v>86.7</v>
@@ -2331,28 +2398,28 @@
         <v>10.3</v>
       </c>
       <c r="M11" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="N11" t="n">
         <v>0.384</v>
       </c>
       <c r="O11" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
       <c r="P11" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q11" t="n">
         <v>0.776</v>
       </c>
       <c r="R11" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="S11" t="n">
         <v>34.6</v>
       </c>
       <c r="T11" t="n">
-        <v>44.8</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>27.2</v>
@@ -2367,7 +2434,7 @@
         <v>6.2</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="Z11" t="n">
         <v>19.8</v>
@@ -2376,13 +2443,13 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>110.8</v>
+        <v>110.9</v>
       </c>
       <c r="AC11" t="n">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="AD11" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AV11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW11" t="n">
         <v>4</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -2489,40 +2556,40 @@
         <v>47</v>
       </c>
       <c r="E12" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.681</v>
+        <v>0.702</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>36.8</v>
+        <v>36.6</v>
       </c>
       <c r="J12" t="n">
-        <v>83.59999999999999</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.35</v>
+        <v>0.352</v>
       </c>
       <c r="O12" t="n">
-        <v>17.3</v>
+        <v>17.7</v>
       </c>
       <c r="P12" t="n">
-        <v>24</v>
+        <v>24.6</v>
       </c>
       <c r="Q12" t="n">
         <v>0.72</v>
@@ -2531,61 +2598,61 @@
         <v>12</v>
       </c>
       <c r="S12" t="n">
-        <v>31.3</v>
+        <v>31.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.3</v>
+        <v>43.5</v>
       </c>
       <c r="U12" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="V12" t="n">
         <v>17.3</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>4.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="Z12" t="n">
         <v>22.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.3</v>
+        <v>20.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.6</v>
+        <v>102.7</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF12" t="n">
         <v>4</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
         <v>21</v>
       </c>
       <c r="AJ12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL12" t="n">
         <v>1</v>
@@ -2594,25 +2661,25 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
       </c>
       <c r="AR12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>16</v>
@@ -2621,22 +2688,22 @@
         <v>29</v>
       </c>
       <c r="AW12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>27</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC12" t="n">
         <v>9</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -2668,55 +2735,55 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" t="n">
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G13" t="n">
-        <v>0.347</v>
+        <v>0.354</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J13" t="n">
         <v>83.7</v>
       </c>
       <c r="K13" t="n">
-        <v>0.43</v>
+        <v>0.431</v>
       </c>
       <c r="L13" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M13" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="N13" t="n">
-        <v>0.323</v>
+        <v>0.326</v>
       </c>
       <c r="O13" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P13" t="n">
         <v>21.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.757</v>
+        <v>0.753</v>
       </c>
       <c r="R13" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S13" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="T13" t="n">
-        <v>45.1</v>
+        <v>45.2</v>
       </c>
       <c r="U13" t="n">
         <v>20.9</v>
@@ -2725,31 +2792,31 @@
         <v>14.6</v>
       </c>
       <c r="W13" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="X13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z13" t="n">
         <v>21</v>
       </c>
       <c r="AA13" t="n">
-        <v>21.1</v>
+        <v>21</v>
       </c>
       <c r="AB13" t="n">
         <v>95</v>
       </c>
       <c r="AC13" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>25</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2773,7 +2840,7 @@
         <v>22</v>
       </c>
       <c r="AM13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN13" t="n">
         <v>25</v>
@@ -2782,13 +2849,13 @@
         <v>24</v>
       </c>
       <c r="AP13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ13" t="n">
+        <v>16</v>
+      </c>
+      <c r="AR13" t="n">
         <v>14</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>4</v>
@@ -2806,16 +2873,16 @@
         <v>29</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
       </c>
       <c r="BA13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -2850,16 +2917,16 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F14" t="n">
         <v>15</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
@@ -2868,7 +2935,7 @@
         <v>39.1</v>
       </c>
       <c r="J14" t="n">
-        <v>82.59999999999999</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,40 +2944,40 @@
         <v>10</v>
       </c>
       <c r="M14" t="n">
-        <v>26.3</v>
+        <v>26.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.38</v>
       </c>
       <c r="O14" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P14" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.75</v>
+        <v>0.747</v>
       </c>
       <c r="R14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T14" t="n">
-        <v>41.5</v>
+        <v>41.2</v>
       </c>
       <c r="U14" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="V14" t="n">
         <v>12</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y14" t="n">
         <v>3</v>
@@ -2925,19 +2992,19 @@
         <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
@@ -2949,7 +3016,7 @@
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL14" t="n">
         <v>4</v>
@@ -2967,7 +3034,7 @@
         <v>4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E15" t="n">
         <v>13</v>
       </c>
       <c r="F15" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G15" t="n">
-        <v>0.283</v>
+        <v>0.277</v>
       </c>
       <c r="H15" t="n">
         <v>48.5</v>
       </c>
       <c r="I15" t="n">
-        <v>37.5</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
-        <v>85.7</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0.437</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="M15" t="n">
-        <v>19.3</v>
+        <v>19.1</v>
       </c>
       <c r="N15" t="n">
         <v>0.346</v>
       </c>
       <c r="O15" t="n">
-        <v>18.2</v>
+        <v>18.4</v>
       </c>
       <c r="P15" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.745</v>
+        <v>0.747</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.9</v>
+        <v>31.8</v>
       </c>
       <c r="T15" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U15" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V15" t="n">
         <v>13.1</v>
@@ -3098,19 +3165,19 @@
         <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB15" t="n">
-        <v>99.8</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,13 +3189,13 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AJ15" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AK15" t="n">
         <v>24</v>
@@ -3140,16 +3207,16 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR15" t="n">
         <v>10</v>
@@ -3158,16 +3225,16 @@
         <v>19</v>
       </c>
       <c r="AT15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>7</v>
       </c>
       <c r="AW15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX15" t="n">
         <v>20</v>
@@ -3176,10 +3243,10 @@
         <v>9</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3214,55 +3281,55 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="n">
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0.745</v>
+        <v>0.739</v>
       </c>
       <c r="H16" t="n">
         <v>49</v>
       </c>
       <c r="I16" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J16" t="n">
-        <v>83.5</v>
+        <v>83.3</v>
       </c>
       <c r="K16" t="n">
-        <v>0.464</v>
+        <v>0.466</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="M16" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="N16" t="n">
-        <v>0.347</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P16" t="n">
-        <v>23.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.778</v>
+        <v>0.777</v>
       </c>
       <c r="R16" t="n">
-        <v>10.5</v>
+        <v>10.3</v>
       </c>
       <c r="S16" t="n">
         <v>32.7</v>
       </c>
       <c r="T16" t="n">
-        <v>43.2</v>
+        <v>43</v>
       </c>
       <c r="U16" t="n">
         <v>22.3</v>
@@ -3271,7 +3338,7 @@
         <v>13</v>
       </c>
       <c r="W16" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>4.4</v>
@@ -3286,13 +3353,13 @@
         <v>20.9</v>
       </c>
       <c r="AB16" t="n">
-        <v>101.3</v>
+        <v>101.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE16" t="n">
         <v>3</v>
@@ -3310,7 +3377,7 @@
         <v>8</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
         <v>7</v>
@@ -3319,10 +3386,10 @@
         <v>28</v>
       </c>
       <c r="AM16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO16" t="n">
         <v>7</v>
@@ -3334,10 +3401,10 @@
         <v>6</v>
       </c>
       <c r="AR16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AT16" t="n">
         <v>16</v>
@@ -3346,7 +3413,7 @@
         <v>10</v>
       </c>
       <c r="AV16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW16" t="n">
         <v>8</v>
@@ -3364,10 +3431,10 @@
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>-3.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>17</v>
@@ -3495,10 +3562,10 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM17" t="n">
         <v>20</v>
@@ -3507,7 +3574,7 @@
         <v>21</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP17" t="n">
         <v>13</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>29</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3578,16 +3645,16 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
         <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>0.532</v>
+        <v>0.522</v>
       </c>
       <c r="H18" t="n">
         <v>48.5</v>
@@ -3596,7 +3663,7 @@
         <v>37.8</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.2</v>
       </c>
       <c r="K18" t="n">
         <v>0.466</v>
@@ -3605,73 +3672,73 @@
         <v>7.1</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="N18" t="n">
         <v>0.377</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R18" t="n">
         <v>10.3</v>
       </c>
       <c r="S18" t="n">
-        <v>31</v>
+        <v>30.8</v>
       </c>
       <c r="T18" t="n">
-        <v>41.3</v>
+        <v>41.1</v>
       </c>
       <c r="U18" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V18" t="n">
         <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="X18" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y18" t="n">
         <v>4.7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>4.6</v>
-      </c>
       <c r="Z18" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AA18" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AB18" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="AC18" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE18" t="n">
         <v>15</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>14</v>
       </c>
       <c r="AF18" t="n">
         <v>14</v>
       </c>
       <c r="AG18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ18" t="n">
         <v>25</v>
@@ -3680,7 +3747,7 @@
         <v>6</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3689,7 +3756,7 @@
         <v>5</v>
       </c>
       <c r="AO18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP18" t="n">
         <v>26</v>
@@ -3719,13 +3786,13 @@
         <v>14</v>
       </c>
       <c r="AY18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ18" t="n">
         <v>29</v>
       </c>
       <c r="BA18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB18" t="n">
         <v>20</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3760,22 +3827,22 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
         <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.17</v>
+        <v>0.174</v>
       </c>
       <c r="H19" t="n">
         <v>48.2</v>
       </c>
       <c r="I19" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J19" t="n">
         <v>84.7</v>
@@ -3790,13 +3857,13 @@
         <v>15.1</v>
       </c>
       <c r="N19" t="n">
-        <v>0.338</v>
+        <v>0.335</v>
       </c>
       <c r="O19" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="P19" t="n">
-        <v>24.8</v>
+        <v>24.9</v>
       </c>
       <c r="Q19" t="n">
         <v>0.75</v>
@@ -3805,13 +3872,13 @@
         <v>12.1</v>
       </c>
       <c r="S19" t="n">
-        <v>28.7</v>
+        <v>28.8</v>
       </c>
       <c r="T19" t="n">
-        <v>40.8</v>
+        <v>41</v>
       </c>
       <c r="U19" t="n">
-        <v>22.1</v>
+        <v>22.2</v>
       </c>
       <c r="V19" t="n">
         <v>15.1</v>
@@ -3820,43 +3887,43 @@
         <v>8.5</v>
       </c>
       <c r="X19" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y19" t="n">
         <v>5.9</v>
       </c>
       <c r="Z19" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="AB19" t="n">
-        <v>97.3</v>
+        <v>97.5</v>
       </c>
       <c r="AC19" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="AD19" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE19" t="n">
         <v>30</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
         <v>30</v>
       </c>
       <c r="AH19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AJ19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK19" t="n">
         <v>25</v>
@@ -3898,13 +3965,13 @@
         <v>7</v>
       </c>
       <c r="AX19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA19" t="n">
         <v>7</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F20" t="n">
         <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>0.522</v>
+        <v>0.532</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
@@ -3960,121 +4027,121 @@
         <v>38.2</v>
       </c>
       <c r="J20" t="n">
-        <v>83.5</v>
+        <v>83.90000000000001</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.455</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
         <v>18.9</v>
       </c>
       <c r="N20" t="n">
-        <v>0.348</v>
+        <v>0.346</v>
       </c>
       <c r="O20" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="P20" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.766</v>
+        <v>0.758</v>
       </c>
       <c r="R20" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S20" t="n">
-        <v>32</v>
+        <v>32.1</v>
       </c>
       <c r="T20" t="n">
-        <v>43.8</v>
+        <v>44.2</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
       </c>
       <c r="V20" t="n">
-        <v>13</v>
+        <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X20" t="n">
-        <v>5.6</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.8</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
         <v>100.2</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>14</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI20" t="n">
         <v>10</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
         <v>25</v>
       </c>
       <c r="AN20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AO20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AS20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AU20" t="n">
         <v>17</v>
       </c>
-      <c r="AT20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>19</v>
-      </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>23</v>
@@ -4086,7 +4153,7 @@
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4095,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="BC20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -4202,13 +4269,13 @@
         <v>-7.9</v>
       </c>
       <c r="AD21" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
       </c>
       <c r="AF21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AG21" t="n">
         <v>29</v>
@@ -4217,13 +4284,13 @@
         <v>19</v>
       </c>
       <c r="AI21" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL21" t="n">
         <v>15</v>
@@ -4232,7 +4299,7 @@
         <v>21</v>
       </c>
       <c r="AN21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>30</v>
@@ -4241,7 +4308,7 @@
         <v>30</v>
       </c>
       <c r="AQ21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AR21" t="n">
         <v>18</v>
@@ -4262,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AY21" t="n">
         <v>6</v>
@@ -4271,7 +4338,7 @@
         <v>25</v>
       </c>
       <c r="BA21" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BB21" t="n">
         <v>28</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -4306,46 +4373,46 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" t="n">
         <v>23</v>
       </c>
       <c r="F22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G22" t="n">
-        <v>0.489</v>
+        <v>0.5</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
       </c>
       <c r="I22" t="n">
-        <v>37.2</v>
+        <v>37.4</v>
       </c>
       <c r="J22" t="n">
-        <v>85</v>
+        <v>85.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.438</v>
+        <v>0.44</v>
       </c>
       <c r="L22" t="n">
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="N22" t="n">
         <v>0.318</v>
       </c>
       <c r="O22" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
       <c r="P22" t="n">
-        <v>23.4</v>
+        <v>23.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.743</v>
+        <v>0.742</v>
       </c>
       <c r="R22" t="n">
         <v>12</v>
@@ -4357,34 +4424,34 @@
         <v>46.7</v>
       </c>
       <c r="U22" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15</v>
+        <v>14.9</v>
       </c>
       <c r="W22" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Y22" t="n">
         <v>4.7</v>
       </c>
       <c r="Z22" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AA22" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB22" t="n">
-        <v>99.09999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AD22" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AE22" t="n">
         <v>16</v>
@@ -4399,13 +4466,13 @@
         <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL22" t="n">
         <v>16</v>
@@ -4426,7 +4493,7 @@
         <v>22</v>
       </c>
       <c r="AR22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AS22" t="n">
         <v>3</v>
@@ -4435,31 +4502,31 @@
         <v>1</v>
       </c>
       <c r="AU22" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AV22" t="n">
         <v>21</v>
       </c>
       <c r="AW22" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AX22" t="n">
         <v>4</v>
       </c>
       <c r="AY22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ22" t="n">
         <v>28</v>
       </c>
       <c r="BA22" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB22" t="n">
         <v>19</v>
       </c>
       <c r="BC22" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -4503,19 +4570,19 @@
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.3</v>
+        <v>37.2</v>
       </c>
       <c r="J23" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L23" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.1</v>
       </c>
       <c r="N23" t="n">
         <v>0.362</v>
@@ -4524,19 +4591,19 @@
         <v>14.4</v>
       </c>
       <c r="P23" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.731</v>
+        <v>0.73</v>
       </c>
       <c r="R23" t="n">
-        <v>8.800000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.3</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.3</v>
@@ -4545,13 +4612,13 @@
         <v>14.9</v>
       </c>
       <c r="W23" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
         <v>21.3</v>
@@ -4560,10 +4627,10 @@
         <v>18.7</v>
       </c>
       <c r="AB23" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,25 +4639,25 @@
         <v>26</v>
       </c>
       <c r="AF23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
         <v>26</v>
       </c>
       <c r="AH23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AI23" t="n">
         <v>17</v>
       </c>
       <c r="AJ23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>22</v>
@@ -4602,43 +4669,43 @@
         <v>29</v>
       </c>
       <c r="AP23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>27</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>26</v>
       </c>
       <c r="AR23" t="n">
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV23" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
       </c>
       <c r="BA23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
       </c>
       <c r="F24" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G24" t="n">
-        <v>0.208</v>
+        <v>0.213</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4691,31 +4758,31 @@
         <v>80.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.409</v>
+        <v>0.41</v>
       </c>
       <c r="L24" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="M24" t="n">
-        <v>23.8</v>
+        <v>23.6</v>
       </c>
       <c r="N24" t="n">
-        <v>0.302</v>
+        <v>0.298</v>
       </c>
       <c r="O24" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.9</v>
+        <v>24.1</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="R24" t="n">
-        <v>11.6</v>
+        <v>11.7</v>
       </c>
       <c r="S24" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T24" t="n">
         <v>41.8</v>
@@ -4724,31 +4791,31 @@
         <v>20.1</v>
       </c>
       <c r="V24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="W24" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="X24" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Y24" t="n">
         <v>5.6</v>
       </c>
       <c r="Z24" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AA24" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AB24" t="n">
-        <v>89.59999999999999</v>
+        <v>89.7</v>
       </c>
       <c r="AC24" t="n">
-        <v>-11.5</v>
+        <v>-11.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>28</v>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4781,7 +4848,7 @@
         <v>30</v>
       </c>
       <c r="AO24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AP24" t="n">
         <v>10</v>
@@ -4790,22 +4857,22 @@
         <v>30</v>
       </c>
       <c r="AR24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS24" t="n">
         <v>27</v>
       </c>
       <c r="AT24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU24" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV24" t="n">
         <v>30</v>
       </c>
       <c r="AW24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX24" t="n">
         <v>3</v>
@@ -4814,7 +4881,7 @@
         <v>24</v>
       </c>
       <c r="AZ24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA24" t="n">
         <v>15</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -4852,61 +4919,61 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E25" t="n">
         <v>28</v>
       </c>
       <c r="F25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G25" t="n">
-        <v>0.571</v>
+        <v>0.583</v>
       </c>
       <c r="H25" t="n">
         <v>48.6</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>40.1</v>
       </c>
       <c r="J25" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.463</v>
+        <v>0.466</v>
       </c>
       <c r="L25" t="n">
         <v>9.699999999999999</v>
       </c>
       <c r="M25" t="n">
-        <v>26.9</v>
+        <v>27</v>
       </c>
       <c r="N25" t="n">
         <v>0.359</v>
       </c>
       <c r="O25" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P25" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.79</v>
+        <v>0.791</v>
       </c>
       <c r="R25" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="S25" t="n">
-        <v>32</v>
+        <v>31.9</v>
       </c>
       <c r="T25" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U25" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V25" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="W25" t="n">
         <v>8.699999999999999</v>
@@ -4915,34 +4982,34 @@
         <v>4.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="Z25" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="AA25" t="n">
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>106.8</v>
+        <v>107.2</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.8</v>
+        <v>2.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AI25" t="n">
         <v>3</v>
@@ -4960,19 +5027,19 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ25" t="n">
         <v>2</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AS25" t="n">
         <v>18</v>
@@ -4984,7 +5051,7 @@
         <v>21</v>
       </c>
       <c r="AV25" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AW25" t="n">
         <v>6</v>
@@ -4999,13 +5066,13 @@
         <v>26</v>
       </c>
       <c r="BA25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BB25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" t="n">
         <v>32</v>
       </c>
       <c r="F26" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.681</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
       </c>
       <c r="I26" t="n">
-        <v>38.4</v>
+        <v>38.5</v>
       </c>
       <c r="J26" t="n">
-        <v>86.59999999999999</v>
+        <v>86.5</v>
       </c>
       <c r="K26" t="n">
-        <v>0.444</v>
+        <v>0.445</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
@@ -5064,7 +5131,7 @@
         <v>27.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.368</v>
+        <v>0.37</v>
       </c>
       <c r="O26" t="n">
         <v>15.4</v>
@@ -5073,67 +5140,67 @@
         <v>19.4</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.793</v>
+        <v>0.794</v>
       </c>
       <c r="R26" t="n">
         <v>10.9</v>
       </c>
       <c r="S26" t="n">
-        <v>34.6</v>
+        <v>34.7</v>
       </c>
       <c r="T26" t="n">
-        <v>45.5</v>
+        <v>45.6</v>
       </c>
       <c r="U26" t="n">
         <v>22.4</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.7</v>
       </c>
       <c r="W26" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X26" t="n">
         <v>5</v>
       </c>
       <c r="Y26" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA26" t="n">
         <v>19.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>102.4</v>
+        <v>102.7</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE26" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AH26" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
         <v>9</v>
       </c>
       <c r="AJ26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK26" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
@@ -5154,7 +5221,7 @@
         <v>1</v>
       </c>
       <c r="AR26" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AS26" t="n">
         <v>1</v>
@@ -5169,13 +5236,13 @@
         <v>9</v>
       </c>
       <c r="AW26" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AX26" t="n">
         <v>9</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
         <v>7</v>
@@ -5184,10 +5251,10 @@
         <v>25</v>
       </c>
       <c r="BB26" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BC26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5216,46 +5283,46 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>29</v>
       </c>
       <c r="G27" t="n">
-        <v>0.37</v>
+        <v>0.356</v>
       </c>
       <c r="H27" t="n">
         <v>48.7</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
         <v>80.2</v>
       </c>
       <c r="K27" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L27" t="n">
         <v>5.2</v>
       </c>
       <c r="M27" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N27" t="n">
         <v>0.33</v>
       </c>
       <c r="O27" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="P27" t="n">
         <v>29.8</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.782</v>
+        <v>0.779</v>
       </c>
       <c r="R27" t="n">
         <v>11.1</v>
@@ -5267,43 +5334,43 @@
         <v>44.8</v>
       </c>
       <c r="U27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="V27" t="n">
         <v>16.5</v>
       </c>
       <c r="W27" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="X27" t="n">
         <v>3.8</v>
       </c>
       <c r="Y27" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z27" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA27" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="AB27" t="n">
         <v>101.4</v>
       </c>
       <c r="AC27" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="AD27" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE27" t="n">
         <v>24</v>
       </c>
-      <c r="AE27" t="n">
-        <v>22</v>
-      </c>
       <c r="AF27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>5</v>
@@ -5315,7 +5382,7 @@
         <v>28</v>
       </c>
       <c r="AK27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL27" t="n">
         <v>29</v>
@@ -5333,7 +5400,7 @@
         <v>1</v>
       </c>
       <c r="AQ27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR27" t="n">
         <v>13</v>
@@ -5360,16 +5427,16 @@
         <v>30</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5401,46 +5468,46 @@
         <v>47</v>
       </c>
       <c r="E28" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F28" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="n">
-        <v>0.617</v>
+        <v>0.638</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>37.8</v>
+        <v>38</v>
       </c>
       <c r="J28" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.454</v>
+        <v>0.457</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M28" t="n">
         <v>22.4</v>
       </c>
       <c r="N28" t="n">
-        <v>0.364</v>
+        <v>0.368</v>
       </c>
       <c r="O28" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P28" t="n">
-        <v>22.5</v>
+        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.765</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="S28" t="n">
         <v>33.9</v>
@@ -5449,55 +5516,55 @@
         <v>43.9</v>
       </c>
       <c r="U28" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="V28" t="n">
         <v>14.4</v>
       </c>
       <c r="W28" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="X28" t="n">
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AB28" t="n">
-        <v>101</v>
+        <v>101.3</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG28" t="n">
         <v>10</v>
       </c>
       <c r="AH28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ28" t="n">
         <v>18</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AL28" t="n">
         <v>11</v>
@@ -5509,13 +5576,13 @@
         <v>7</v>
       </c>
       <c r="AO28" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR28" t="n">
         <v>25</v>
@@ -5524,16 +5591,16 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW28" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AX28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5580,28 +5647,28 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.6879999999999999</v>
+        <v>0.681</v>
       </c>
       <c r="H29" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I29" t="n">
-        <v>39</v>
+        <v>38.9</v>
       </c>
       <c r="J29" t="n">
-        <v>84.8</v>
+        <v>84.7</v>
       </c>
       <c r="K29" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L29" t="n">
         <v>8.9</v>
@@ -5610,28 +5677,28 @@
         <v>25.4</v>
       </c>
       <c r="N29" t="n">
-        <v>0.351</v>
+        <v>0.349</v>
       </c>
       <c r="O29" t="n">
         <v>19.9</v>
       </c>
       <c r="P29" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.781</v>
+        <v>0.783</v>
       </c>
       <c r="R29" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S29" t="n">
         <v>30.6</v>
       </c>
       <c r="T29" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U29" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="V29" t="n">
         <v>12.7</v>
@@ -5640,43 +5707,43 @@
         <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5.1</v>
       </c>
       <c r="Z29" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="AA29" t="n">
         <v>21.7</v>
       </c>
       <c r="AB29" t="n">
-        <v>106.8</v>
+        <v>106.5</v>
       </c>
       <c r="AC29" t="n">
         <v>5.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AG29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AH29" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
       </c>
       <c r="AJ29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK29" t="n">
         <v>9</v>
@@ -5685,10 +5752,10 @@
         <v>8</v>
       </c>
       <c r="AM29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO29" t="n">
         <v>3</v>
@@ -5697,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="AQ29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AS29" t="n">
         <v>26</v>
@@ -5715,16 +5782,16 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>19</v>
       </c>
       <c r="AZ29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BA29" t="n">
         <v>4</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5840,16 +5907,16 @@
         <v>-2.6</v>
       </c>
       <c r="AD30" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AE30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF30" t="n">
         <v>23</v>
       </c>
       <c r="AG30" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH30" t="n">
         <v>29</v>
@@ -5876,10 +5943,10 @@
         <v>17</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
@@ -5891,7 +5958,7 @@
         <v>17</v>
       </c>
       <c r="AU30" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV30" t="n">
         <v>26</v>
@@ -5912,10 +5979,10 @@
         <v>24</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
@@ -5944,19 +6011,19 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E31" t="n">
         <v>31</v>
       </c>
       <c r="F31" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G31" t="n">
-        <v>0.646</v>
+        <v>0.66</v>
       </c>
       <c r="H31" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I31" t="n">
         <v>39</v>
@@ -5968,37 +6035,37 @@
         <v>0.474</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="N31" t="n">
-        <v>0.379</v>
+        <v>0.378</v>
       </c>
       <c r="O31" t="n">
-        <v>16.1</v>
+        <v>15.8</v>
       </c>
       <c r="P31" t="n">
-        <v>21.8</v>
+        <v>21.4</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.739</v>
+        <v>0.737</v>
       </c>
       <c r="R31" t="n">
         <v>10.4</v>
       </c>
       <c r="S31" t="n">
-        <v>33.4</v>
+        <v>33.6</v>
       </c>
       <c r="T31" t="n">
-        <v>43.8</v>
+        <v>43.9</v>
       </c>
       <c r="U31" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="V31" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="W31" t="n">
         <v>7.5</v>
@@ -6007,91 +6074,91 @@
         <v>4.8</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z31" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA31" t="n">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="AB31" t="n">
-        <v>100.2</v>
+        <v>99.8</v>
       </c>
       <c r="AC31" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AH31" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
         <v>6</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
       </c>
       <c r="AM31" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN31" t="n">
         <v>4</v>
       </c>
       <c r="AO31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP31" t="n">
         <v>25</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>22</v>
       </c>
       <c r="AQ31" t="n">
         <v>24</v>
       </c>
       <c r="AR31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT31" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
       </c>
       <c r="AY31" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ31" t="n">
         <v>17</v>
       </c>
       <c r="BA31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB31" t="n">
         <v>17</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-31-2014-15</t>
+          <t>2015-01-31</t>
         </is>
       </c>
     </row>
